--- a/is_convecting.xlsx
+++ b/is_convecting.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domas\Desktop\Dedalus_figs\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domas\Desktop\Dedalus_figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C9B64-1336-40BA-99B7-1E7F28215FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B668AD5-0690-4300-ACCB-324286F6F213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7E7181B-76AF-4FEB-A4F7-9EBB52FDAFFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F7E7181B-76AF-4FEB-A4F7-9EBB52FDAFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Np=0.5" sheetId="1" r:id="rId1"/>
+    <sheet name="Np=1.5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="17">
   <si>
     <t>Ta</t>
   </si>
@@ -66,10 +66,25 @@
     <t>Tacrit</t>
   </si>
   <si>
-    <t>Predicted TaCrit =</t>
+    <t>Phi=45</t>
   </si>
   <si>
-    <t>Phi=45</t>
+    <t>RaCrit</t>
+  </si>
+  <si>
+    <t>RaCrit at Ta=0?</t>
+  </si>
+  <si>
+    <t>isConvecting?</t>
+  </si>
+  <si>
+    <t>At low Ta values</t>
+  </si>
+  <si>
+    <t>RaCrit at Ta=0</t>
+  </si>
+  <si>
+    <t>Is Convecting?</t>
   </si>
 </sst>
 </file>
@@ -222,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -245,6 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,81 +304,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>TaCrit vs RaCrit</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1536779556830489"/>
+          <c:y val="0.15183982683982683"/>
+          <c:w val="0.7879399734124144"/>
+          <c:h val="0.70601260069764005"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Np=0.5'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tacrit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -396,15 +356,57 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17986657917760279"/>
-                  <c:y val="-6.9076261300670752E-3"/>
+                  <c:x val="-0.20269882621549629"/>
+                  <c:y val="0.12593795093795093"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>RaCrit = 29.509</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(Ta)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>0.6171</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 550</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -437,7 +439,31 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Np=0.5'!$G$3:$G$7</c:f>
+              <c:f>'Np=0.5'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>950000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Np=0.5'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -450,29 +476,11 @@
                 <c:pt idx="2">
                   <c:v>1000000</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>100000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Np=0.5'!$H$3:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>550000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,7 +488,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C4B-4EDE-98EC-5C75CC55ED02}"/>
+              <c16:uniqueId val="{00000001-762E-4382-A53B-2562B65F356C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -504,22 +512,63 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -565,6 +614,897 @@
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RaCrit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7316017316017316E-2"/>
+              <c:y val="0.45494540455170379"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969709983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18888670166229221"/>
+          <c:y val="8.7962962962962965E-2"/>
+          <c:w val="0.72785629921259842"/>
+          <c:h val="0.74350320793234181"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Np=1.5'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21892082239720034"/>
+                  <c:y val="0.15740740740740741"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>RaCrit = 32.33</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>(Ta)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>0.5976</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t> + 450</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Np=1.5'!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Np=1.5'!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D42-4EFB-95ED-3A61680611CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2008181824"/>
+        <c:axId val="1908025824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2008181824"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49118985126859144"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908025824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1908025824"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RaCrit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.42573308544765237"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008181824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Np=1.5'!$E$27:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Np=1.5'!$F$27:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577.99874296821611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>771.68608082574508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1018.4793815275654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1311.5665164196012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1646.4626851791672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019.9096136843777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2429.3930067866745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2872.8916349851174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3348.731724183674</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3855.495664840756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC85-44F0-96D3-F37F9B28E477}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2098016096"/>
+        <c:axId val="2009496992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2098016096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2009496992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2009496992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -619,7 +1559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="969709983"/>
+        <c:crossAx val="2098016096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -715,6 +1655,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1231,20 +2251,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>30486</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76206</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1264,6 +3316,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CED421-FD30-4C8A-9226-92B752F6BEB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383EAB5F-CA4A-43C5-B938-D9BEEEFD71A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1569,30 +3698,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41582D4-08EE-43B6-BCEA-FD434202E01D}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="H1" s="25" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="26"/>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1612,10 +3749,16 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10000</v>
       </c>
@@ -1630,14 +3773,20 @@
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>50000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>150000</v>
+        <v>550</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N3" s="1">
+        <v>500</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>500000</v>
@@ -1650,14 +3799,20 @@
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H4" s="1">
-        <v>550000</v>
+        <v>150000</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>50000</v>
       </c>
@@ -1670,23 +3825,33 @@
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="G5" s="1">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="H5" s="1">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>550000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>50000</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>60000</v>
       </c>
@@ -1694,13 +3859,13 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>100000000</v>
+        <v>10000000</v>
       </c>
       <c r="H7" s="1">
-        <v>35000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>950000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>100000</v>
       </c>
@@ -1713,8 +3878,14 @@
       <c r="E8" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>35000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>200000</v>
       </c>
@@ -1722,7 +3893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>300000</v>
       </c>
@@ -1730,7 +3901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>500000</v>
       </c>
@@ -1744,7 +3915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>100000</v>
       </c>
@@ -1759,7 +3930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>200000</v>
       </c>
@@ -1767,7 +3938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>300000</v>
       </c>
@@ -1775,7 +3946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>400000</v>
       </c>
@@ -1783,7 +3954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11">
         <v>500000</v>
@@ -1937,30 +4108,33 @@
       <c r="A30" s="1">
         <v>10000000</v>
       </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1">
-        <f>0.0043*A30^1.617</f>
-        <v>896331079.73183537</v>
-      </c>
+      <c r="B30" s="1">
+        <v>500000000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
-        <v>10000000000</v>
+        <v>800000000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
-        <v>30000000000</v>
+        <v>900000000</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
-        <v>40000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -1968,7 +4142,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>50000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -1976,7 +4150,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>100000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
@@ -1984,51 +4158,51 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>100000000</v>
-      </c>
       <c r="B36" s="1">
-        <v>10000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
-        <v>30000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
-        <v>40000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>100000000</v>
+      </c>
       <c r="B39" s="1">
-        <v>50000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
-        <v>100000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
-        <v>1000000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -2036,9 +4210,50 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
+        <v>50000000000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
         <v>5000000000000</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>2000000000000</v>
+      </c>
+      <c r="D47" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2050,4 +4265,408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F9576-6743-4217-9919-8608EFE093AB}">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="N1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>450</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="1">
+        <v>400</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>650000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N5" s="1">
+        <v>500</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1500000000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>600000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>700000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>10000000000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="22">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="22">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <f>32.33*E28^0.5976+F27</f>
+        <v>577.99874296821611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="22">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29:F37" si="0">32.33*E29^0.5976+F28</f>
+        <v>771.68608082574508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="22">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>1018.4793815275654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="22">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>1311.5665164196012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="22">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1646.4626851791672</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="22">
+        <v>60</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>2019.9096136843777</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="22">
+        <v>70</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>2429.3930067866745</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="22">
+        <v>80</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>2872.8916349851174</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="22">
+        <v>90</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>3348.731724183674</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="22">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>3855.495664840756</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E25:F25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/is_convecting.xlsx
+++ b/is_convecting.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domas\Desktop\Dedalus_figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B668AD5-0690-4300-ACCB-324286F6F213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD217B5F-B3B2-49E6-9137-8D702FCF7367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F7E7181B-76AF-4FEB-A4F7-9EBB52FDAFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Np=0.5" sheetId="1" r:id="rId1"/>
-    <sheet name="Np=1.5" sheetId="2" r:id="rId2"/>
+    <sheet name="Np=1" sheetId="3" r:id="rId2"/>
+    <sheet name="Np=1.5" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="18">
   <si>
     <t>Ta</t>
   </si>
@@ -86,11 +87,17 @@
   <si>
     <t>Is Convecting?</t>
   </si>
+  <si>
+    <t>log base 10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -261,6 +268,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,8 +320,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1536779556830489"/>
-          <c:y val="0.15183982683982683"/>
+          <c:x val="0.11920429766888126"/>
+          <c:y val="0.16322918964745159"/>
           <c:w val="0.7879399734124144"/>
           <c:h val="0.70601260069764005"/>
         </c:manualLayout>
@@ -361,8 +370,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.20269882621549629"/>
-                  <c:y val="0.12593795093795093"/>
+                  <c:x val="-0.19020544349250104"/>
+                  <c:y val="8.6839416403153638E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -385,19 +394,19 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>RaCrit = 29.509</a:t>
+                      <a:t>RaCrit = </a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                         <a:effectLst/>
                       </a:rPr>
-                      <a:t>(Ta)</a:t>
+                      <a:t>13.752(Ta)</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
                         <a:effectLst/>
                       </a:rPr>
-                      <a:t>0.6171</a:t>
+                      <a:t>0.6411</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -439,48 +448,48 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Np=0.5'!$H$4:$H$8</c:f>
+              <c:f>'Np=0.5'!$J$4:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>150000</c:v>
+                  <c:v>5.5440680443502757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>550000</c:v>
+                  <c:v>5.9777236052888476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25000000</c:v>
+                  <c:v>7.653212513775344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>950000000</c:v>
+                  <c:v>9.1760912590556813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35000000000</c:v>
+                  <c:v>10.653212513775344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Np=0.5'!$G$4:$G$8</c:f>
+              <c:f>'Np=0.5'!$I$4:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>4.6989700043360187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000000</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,7 +497,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-762E-4382-A53B-2562B65F356C}"/>
+              <c16:uniqueId val="{00000002-0BC3-4BFC-9FC9-1C755712DCD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -506,9 +515,8 @@
       <c:valAx>
         <c:axId val="969709983"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="10000"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -567,7 +575,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;10^&quot;#" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -611,9 +619,8 @@
       <c:valAx>
         <c:axId val="969947295"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="10000"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -680,7 +687,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;10^&quot;#" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -794,10 +801,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18888670166229221"/>
-          <c:y val="8.7962962962962965E-2"/>
-          <c:w val="0.72785629921259842"/>
-          <c:h val="0.74350320793234181"/>
+          <c:x val="0.15555336832895891"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.76674518810148728"/>
+          <c:h val="0.78054024496937879"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -806,17 +813,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Np=1.5'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -855,8 +851,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.21892082239720034"/>
-                  <c:y val="0.15740740740740741"/>
+                  <c:x val="-0.31256124234470689"/>
+                  <c:y val="0.21296296296296297"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -879,25 +875,468 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>RaCrit = 32.33</a:t>
+                      <a:t>RaCrit = 15.78(Ta)</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t>(Ta)</a:t>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>0.6147</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Np=1'!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Np=1'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8C14-492B-BB48-B6167AE70547}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1552782399"/>
+        <c:axId val="1420761679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1552782399"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1420761679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1420761679"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RaCrit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552782399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18888670166229221"/>
+          <c:y val="8.7962962962962965E-2"/>
+          <c:w val="0.72785629921259842"/>
+          <c:h val="0.74350320793234181"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1551869038073079"/>
+                  <c:y val="0.11608075284412486"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>RaCrit = 11.362(Ta)</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t>0.5976</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t> + 450</a:t>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>0.616</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -940,16 +1379,16 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15000</c:v>
+                  <c:v>55000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>650000</c:v>
+                  <c:v>2500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35000000</c:v>
+                  <c:v>150000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500000000</c:v>
+                  <c:v>3500000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,7 +1710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1285,37 +1724,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1446,20 +1855,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1508,20 +1903,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1735,6 +2116,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3283,20 +3704,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>401171</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>53346</xdr:rowOff>
+      <xdr:rowOff>89205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3325,6 +4262,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC36D5B2-E221-44A0-B8D5-C7C7737F234A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3698,30 +4676,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41582D4-08EE-43B6-BCEA-FD434202E01D}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="H1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="H1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="28"/>
       <c r="N1" t="s">
         <v>15</v>
       </c>
@@ -3751,6 +4733,12 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
       <c r="N2" s="1">
         <v>100</v>
       </c>
@@ -3775,10 +4763,17 @@
       <c r="G3" s="1">
         <v>550</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="22">
+        <f>LOG10(G3)</f>
+        <v>2.7403626894942437</v>
+      </c>
+      <c r="J3" t="e">
+        <f>LOG10(H3)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="N3" s="1">
         <v>500</v>
       </c>
@@ -3802,9 +4797,16 @@
         <v>50000</v>
       </c>
       <c r="H4" s="1">
-        <v>150000</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>350000</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" ref="I4:I8" si="0">LOG10(G4)</f>
+        <v>4.6989700043360187</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="1">LOG10(H4)</f>
+        <v>5.5440680443502757</v>
+      </c>
       <c r="N4" s="1">
         <v>600</v>
       </c>
@@ -3828,7 +4830,15 @@
         <v>100000</v>
       </c>
       <c r="H5" s="1">
-        <v>550000</v>
+        <v>950000</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>5.9777236052888476</v>
       </c>
       <c r="N5" s="1">
         <v>1000</v>
@@ -3848,7 +4858,15 @@
         <v>1000000</v>
       </c>
       <c r="H6" s="1">
-        <v>25000000</v>
+        <v>45000000</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>7.653212513775344</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3862,7 +4880,15 @@
         <v>10000000</v>
       </c>
       <c r="H7" s="1">
-        <v>950000000</v>
+        <v>1500000000</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>9.1760912590556813</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -3882,7 +4908,15 @@
         <v>100000000</v>
       </c>
       <c r="H8" s="1">
-        <v>35000000000</v>
+        <v>45000000000</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>10.653212513775344</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -3890,7 +4924,7 @@
         <v>200000</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -3898,12 +4932,12 @@
         <v>300000</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>3</v>
@@ -3969,205 +5003,210 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>600000</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>700000</v>
       </c>
       <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>800000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>900000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11">
+      <c r="D21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>500000</v>
+      </c>
+      <c r="B23" s="3">
         <v>1000000</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="23">
+        <f>500000/(13.752*10000000^0.6411 + 550)</f>
+        <v>1.1812435915086394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>500000</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11">
-        <v>5000000</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>10000000</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="B25" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>20000000</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>30000000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>50000000</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="B33" s="1">
         <v>500000000</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>800000000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>900000000</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>1000000000</v>
-      </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
-        <v>10000000000</v>
+        <v>800000000</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
-        <v>30000000000</v>
+        <v>900000000</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
-        <v>40000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
-        <v>50000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -4175,21 +5214,18 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
-        <v>100000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>100000000</v>
-      </c>
       <c r="B39" s="1">
         <v>10000000000</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -4197,7 +5233,7 @@
         <v>30000000000</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4225,42 +5261,84 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>100000000</v>
+      </c>
       <c r="B44" s="1">
-        <v>1000000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
-        <v>5000000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>1000000000</v>
-      </c>
       <c r="B46" s="1">
-        <v>1000000000000</v>
+        <v>40000000000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
-        <v>2000000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>60000000000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>100000000000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>1000000000000</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>5000000000000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4268,11 +5346,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B3DF53-526F-4171-8008-D6F4E3A1E000}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>75000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2500000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>70000000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>3000000000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>4000000000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F9576-6743-4217-9919-8608EFE093AB}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4282,15 +5582,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="N1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="N1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="26"/>
+      <c r="O1" s="28"/>
       <c r="P1" t="s">
         <v>13</v>
       </c>
@@ -4357,8 +5657,9 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="I4" s="1">
         <v>10000</v>
@@ -4380,8 +5681,9 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>650000</v>
+        <v>2500000</v>
       </c>
       <c r="I5" s="1">
         <v>100000</v>
@@ -4401,10 +5703,11 @@
         <v>20000</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>35000000</v>
+        <v>150000000</v>
       </c>
       <c r="I6" s="1">
         <v>1000000</v>
@@ -4421,13 +5724,14 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>1500000000</v>
+        <v>3500000000</v>
       </c>
       <c r="I7" s="1">
         <v>10000000</v>
@@ -4435,71 +5739,77 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>100000</v>
-      </c>
       <c r="B9" s="1">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
-        <v>400000</v>
+        <v>60000</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="1">
+        <f>11.362*F10^0.616 + 450</f>
+        <v>3757.1567895472785</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>100000</v>
+      </c>
       <c r="B12" s="1">
-        <v>700000</v>
+        <v>200000</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>1000000</v>
-      </c>
       <c r="B14" s="1">
-        <v>10000000</v>
+        <v>600000</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -4507,7 +5817,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>30000000</v>
+        <v>700000</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -4515,18 +5825,15 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>40000000</v>
+        <v>800000</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>10000000</v>
-      </c>
       <c r="B17" s="1">
-        <v>1000000000</v>
+        <v>900000</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -4534,27 +5841,82 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>2000000000</v>
+        <v>1000000</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>10000000000</v>
+        <v>2000000</v>
       </c>
       <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="D20" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="26" t="s">
+      <c r="B25" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
       <c r="E26" t="s">
         <v>0</v>
       </c>
@@ -4563,6 +5925,12 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
       <c r="E27" s="22">
         <v>0</v>
       </c>
@@ -4571,6 +5939,15 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1000000000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
       <c r="E28" s="22">
         <v>10</v>
       </c>
@@ -4580,6 +5957,12 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" s="22">
         <v>20</v>
       </c>
@@ -4589,6 +5972,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>3000000000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
       <c r="E30" s="22">
         <v>30</v>
       </c>
@@ -4598,6 +5987,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>4000000000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
       <c r="E31" s="22">
         <v>40</v>
       </c>
@@ -4607,6 +6002,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>5000000000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
       <c r="E32" s="22">
         <v>50</v>
       </c>
@@ -4615,7 +6016,13 @@
         <v>1646.4626851791672</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>10000000000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
       <c r="E33" s="22">
         <v>60</v>
       </c>
@@ -4624,7 +6031,7 @@
         <v>2019.9096136843777</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E34" s="22">
         <v>70</v>
       </c>
@@ -4633,7 +6040,7 @@
         <v>2429.3930067866745</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E35" s="22">
         <v>80</v>
       </c>
@@ -4642,7 +6049,7 @@
         <v>2872.8916349851174</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E36" s="22">
         <v>90</v>
       </c>
@@ -4651,7 +6058,7 @@
         <v>3348.731724183674</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E37" s="22">
         <v>100</v>
       </c>
